--- a/BackTest/2020-01-16 BackTest BHP.xlsx
+++ b/BackTest/2020-01-16 BackTest BHP.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>2463.210300000001</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>2882.010300000001</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>949</v>
@@ -523,7 +523,7 @@
         <v>3492.010300000001</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>951</v>
@@ -562,7 +562,7 @@
         <v>3492.010300000001</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>953</v>
@@ -601,7 +601,7 @@
         <v>3492.010300000001</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>953</v>
@@ -640,7 +640,7 @@
         <v>3492.010300000001</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>953</v>
@@ -679,7 +679,7 @@
         <v>3492.010300000001</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>953</v>
@@ -718,7 +718,7 @@
         <v>3483.110300000001</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>953</v>
@@ -757,7 +757,7 @@
         <v>3483.110300000001</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>951</v>
@@ -796,7 +796,7 @@
         <v>3944.214700000001</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>951</v>
@@ -835,7 +835,7 @@
         <v>2944.214700000001</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>953</v>
@@ -874,7 +874,7 @@
         <v>3344.214700000001</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>951</v>
@@ -913,7 +913,7 @@
         <v>3344.214700000001</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>953</v>
@@ -952,7 +952,7 @@
         <v>3344.214700000001</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>953</v>
@@ -991,7 +991,7 @@
         <v>2786.825100000001</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>953</v>
@@ -1030,7 +1030,7 @@
         <v>3471.725100000001</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>951</v>
@@ -1069,7 +1069,7 @@
         <v>3471.725100000001</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>955</v>
@@ -1108,7 +1108,7 @@
         <v>3471.725100000001</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
         <v>955</v>
@@ -1147,7 +1147,7 @@
         <v>3471.725100000001</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>955</v>
@@ -1186,7 +1186,7 @@
         <v>3697.725100000001</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>955</v>
@@ -1225,7 +1225,7 @@
         <v>3877.325100000001</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>957</v>
@@ -1264,7 +1264,7 @@
         <v>4377.325100000001</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>959</v>
@@ -1303,11 +1303,9 @@
         <v>4377.325100000001</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
-      </c>
-      <c r="I24" t="n">
-        <v>961</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr">
         <is>
@@ -1342,11 +1340,9 @@
         <v>4577.325100000001</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
-      </c>
-      <c r="I25" t="n">
-        <v>961</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr">
         <is>
@@ -1381,11 +1377,9 @@
         <v>4393.125100000001</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
-      </c>
-      <c r="I26" t="n">
-        <v>963</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr">
         <is>
@@ -1420,11 +1414,9 @@
         <v>5203.125100000001</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
-      </c>
-      <c r="I27" t="n">
-        <v>961</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr">
         <is>
@@ -1459,11 +1451,9 @@
         <v>5203.125100000001</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
-      </c>
-      <c r="I28" t="n">
-        <v>963</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr">
         <is>
@@ -1535,7 +1525,7 @@
         <v>5203.125100000001</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1609,7 +1599,7 @@
         <v>6324.190500000001</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1646,7 +1636,7 @@
         <v>6318.0905</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1683,7 +1673,7 @@
         <v>7083.0905</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1720,7 +1710,7 @@
         <v>7221.4905</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1757,7 +1747,7 @@
         <v>7021.4905</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1794,7 +1784,7 @@
         <v>7020.8905</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1831,7 +1821,7 @@
         <v>7540.8905</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1905,7 +1895,7 @@
         <v>7476.0484</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1942,7 +1932,7 @@
         <v>8701.0484</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1979,7 +1969,7 @@
         <v>9195.848399999999</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -2016,7 +2006,7 @@
         <v>9995.848399999999</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -2053,7 +2043,7 @@
         <v>9986.348399999999</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -2090,7 +2080,7 @@
         <v>9986.348399999999</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -2127,7 +2117,7 @@
         <v>9981.948399999999</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -2201,11 +2191,9 @@
         <v>10181.9484</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
-      </c>
-      <c r="I48" t="n">
-        <v>963</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr">
         <is>
@@ -2240,11 +2228,9 @@
         <v>10146.5359</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
-      </c>
-      <c r="I49" t="n">
-        <v>963</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr">
         <is>
@@ -2279,11 +2265,9 @@
         <v>10816.5359</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
-      </c>
-      <c r="I50" t="n">
-        <v>959</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr">
         <is>
@@ -2318,11 +2302,9 @@
         <v>10816.5359</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
-      </c>
-      <c r="I51" t="n">
-        <v>961</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr">
         <is>
@@ -2357,11 +2339,9 @@
         <v>11266.5359</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
-      </c>
-      <c r="I52" t="n">
-        <v>961</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr">
         <is>
@@ -3173,9 +3153,11 @@
         <v>8400.824899999998</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>953</v>
+      </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr">
         <is>
@@ -4098,11 +4080,9 @@
         <v>13324.5734</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
-      </c>
-      <c r="I99" t="n">
-        <v>953</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr">
         <is>
@@ -4544,7 +4524,7 @@
         <v>16238.1174</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4581,7 +4561,7 @@
         <v>16467.4174</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4618,7 +4598,7 @@
         <v>18324.0434</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4692,7 +4672,7 @@
         <v>18858.8871</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -12203,7 +12183,7 @@
         <v>34576.68500000003</v>
       </c>
       <c r="H318" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -12240,7 +12220,7 @@
         <v>34539.89430000003</v>
       </c>
       <c r="H319" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -12277,7 +12257,7 @@
         <v>35011.70360000003</v>
       </c>
       <c r="H320" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -12351,7 +12331,7 @@
         <v>35408.91250000003</v>
       </c>
       <c r="H322" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -12388,7 +12368,7 @@
         <v>35398.71250000003</v>
       </c>
       <c r="H323" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -13128,7 +13108,7 @@
         <v>40561.73130000003</v>
       </c>
       <c r="H343" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -13276,7 +13256,7 @@
         <v>41051.51473201003</v>
       </c>
       <c r="H347" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -13424,7 +13404,7 @@
         <v>41790.51473201003</v>
       </c>
       <c r="H351" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -13535,7 +13515,7 @@
         <v>42347.04673201003</v>
       </c>
       <c r="H354" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -13572,7 +13552,7 @@
         <v>42347.04673201003</v>
       </c>
       <c r="H355" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -13609,7 +13589,7 @@
         <v>42347.04673201003</v>
       </c>
       <c r="H356" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -13646,7 +13626,7 @@
         <v>42350.84673201003</v>
       </c>
       <c r="H357" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -13683,7 +13663,7 @@
         <v>42350.84673201003</v>
       </c>
       <c r="H358" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -13720,7 +13700,7 @@
         <v>42350.84673201003</v>
       </c>
       <c r="H359" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -13757,7 +13737,7 @@
         <v>41590.72883201003</v>
       </c>
       <c r="H360" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -13794,7 +13774,7 @@
         <v>41590.72883201003</v>
       </c>
       <c r="H361" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -13831,7 +13811,7 @@
         <v>41590.72883201003</v>
       </c>
       <c r="H362" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
@@ -13868,7 +13848,7 @@
         <v>41678.48463201003</v>
       </c>
       <c r="H363" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -14016,7 +13996,7 @@
         <v>42031.01693201003</v>
       </c>
       <c r="H367" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -14164,7 +14144,7 @@
         <v>42288.89893201003</v>
       </c>
       <c r="H371" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -14201,7 +14181,7 @@
         <v>42288.89893201003</v>
       </c>
       <c r="H372" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -14238,7 +14218,7 @@
         <v>42273.09893201003</v>
       </c>
       <c r="H373" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -14275,7 +14255,7 @@
         <v>42421.49893201003</v>
       </c>
       <c r="H374" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
@@ -14312,7 +14292,7 @@
         <v>42421.49893201003</v>
       </c>
       <c r="H375" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -14349,7 +14329,7 @@
         <v>42417.49893201003</v>
       </c>
       <c r="H376" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -14386,7 +14366,7 @@
         <v>42543.59893201003</v>
       </c>
       <c r="H377" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -14460,7 +14440,7 @@
         <v>42543.59893201003</v>
       </c>
       <c r="H379" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -14867,7 +14847,7 @@
         <v>42181.84953201003</v>
       </c>
       <c r="H390" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
@@ -15163,7 +15143,7 @@
         <v>44064.34953201003</v>
       </c>
       <c r="H398" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
@@ -15200,7 +15180,7 @@
         <v>44064.34953201003</v>
       </c>
       <c r="H399" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
@@ -15237,7 +15217,7 @@
         <v>44037.42833201004</v>
       </c>
       <c r="H400" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
@@ -15274,7 +15254,7 @@
         <v>44037.42833201004</v>
       </c>
       <c r="H401" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
@@ -15311,7 +15291,7 @@
         <v>44037.42833201004</v>
       </c>
       <c r="H402" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
@@ -15348,7 +15328,7 @@
         <v>42393.42833201004</v>
       </c>
       <c r="H403" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
@@ -15385,7 +15365,7 @@
         <v>42747.74413201003</v>
       </c>
       <c r="H404" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
@@ -15422,7 +15402,7 @@
         <v>42733.04413201004</v>
       </c>
       <c r="H405" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
@@ -15459,7 +15439,7 @@
         <v>42890.54413201004</v>
       </c>
       <c r="H406" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
@@ -15496,7 +15476,7 @@
         <v>42890.54413201004</v>
       </c>
       <c r="H407" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
@@ -15533,7 +15513,7 @@
         <v>43090.54413201004</v>
       </c>
       <c r="H408" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
@@ -15570,7 +15550,7 @@
         <v>43090.54413201004</v>
       </c>
       <c r="H409" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
@@ -15607,7 +15587,7 @@
         <v>43680.44413201004</v>
       </c>
       <c r="H410" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
@@ -15644,7 +15624,7 @@
         <v>43680.44413201004</v>
       </c>
       <c r="H411" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
@@ -15681,7 +15661,7 @@
         <v>43714.54413201004</v>
       </c>
       <c r="H412" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
@@ -15718,7 +15698,7 @@
         <v>43714.54413201004</v>
       </c>
       <c r="H413" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
@@ -15755,7 +15735,7 @@
         <v>43714.54413201004</v>
       </c>
       <c r="H414" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
@@ -15903,7 +15883,7 @@
         <v>43692.44413201004</v>
       </c>
       <c r="H418" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
@@ -15940,7 +15920,7 @@
         <v>43692.44413201004</v>
       </c>
       <c r="H419" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
@@ -15977,7 +15957,7 @@
         <v>43692.44413201004</v>
       </c>
       <c r="H420" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
@@ -16014,7 +15994,7 @@
         <v>43692.44413201004</v>
       </c>
       <c r="H421" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
@@ -16051,7 +16031,7 @@
         <v>43692.44413201004</v>
       </c>
       <c r="H422" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
@@ -16088,7 +16068,7 @@
         <v>43692.44413201004</v>
       </c>
       <c r="H423" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
@@ -16125,7 +16105,7 @@
         <v>43913.15703201004</v>
       </c>
       <c r="H424" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
@@ -16162,7 +16142,7 @@
         <v>43894.35703201003</v>
       </c>
       <c r="H425" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
@@ -16199,7 +16179,7 @@
         <v>43894.35703201003</v>
       </c>
       <c r="H426" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
@@ -16236,7 +16216,7 @@
         <v>43861.03033201004</v>
       </c>
       <c r="H427" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
@@ -16273,7 +16253,7 @@
         <v>43876.23033201003</v>
       </c>
       <c r="H428" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
@@ -16310,7 +16290,7 @@
         <v>43876.23033201003</v>
       </c>
       <c r="H429" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
@@ -16347,7 +16327,7 @@
         <v>44075.20363201003</v>
       </c>
       <c r="H430" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
@@ -16384,7 +16364,7 @@
         <v>44075.20363201003</v>
       </c>
       <c r="H431" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
@@ -16421,7 +16401,7 @@
         <v>44062.00363201003</v>
       </c>
       <c r="H432" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
@@ -19492,7 +19472,7 @@
         <v>42759.95743201002</v>
       </c>
       <c r="H515" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
@@ -19640,7 +19620,7 @@
         <v>43279.75743201002</v>
       </c>
       <c r="H519" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
@@ -19677,7 +19657,7 @@
         <v>43279.75743201002</v>
       </c>
       <c r="H520" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
@@ -20195,7 +20175,7 @@
         <v>42753.68892731002</v>
       </c>
       <c r="H534" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
@@ -29741,16 +29721,18 @@
         <v>58483.60672730999</v>
       </c>
       <c r="H792" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I792" t="inlineStr"/>
       <c r="J792" t="inlineStr"/>
       <c r="K792" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L792" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L792" t="n">
+        <v>1</v>
+      </c>
       <c r="M792" t="inlineStr"/>
     </row>
     <row r="793">
@@ -29780,7 +29762,11 @@
       </c>
       <c r="I793" t="inlineStr"/>
       <c r="J793" t="inlineStr"/>
-      <c r="K793" t="inlineStr"/>
+      <c r="K793" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L793" t="n">
         <v>1</v>
       </c>
@@ -29813,7 +29799,11 @@
       </c>
       <c r="I794" t="inlineStr"/>
       <c r="J794" t="inlineStr"/>
-      <c r="K794" t="inlineStr"/>
+      <c r="K794" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L794" t="n">
         <v>1</v>
       </c>
@@ -29846,7 +29836,11 @@
       </c>
       <c r="I795" t="inlineStr"/>
       <c r="J795" t="inlineStr"/>
-      <c r="K795" t="inlineStr"/>
+      <c r="K795" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L795" t="n">
         <v>1</v>
       </c>
@@ -29879,7 +29873,11 @@
       </c>
       <c r="I796" t="inlineStr"/>
       <c r="J796" t="inlineStr"/>
-      <c r="K796" t="inlineStr"/>
+      <c r="K796" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L796" t="n">
         <v>1</v>
       </c>
@@ -29912,7 +29910,11 @@
       </c>
       <c r="I797" t="inlineStr"/>
       <c r="J797" t="inlineStr"/>
-      <c r="K797" t="inlineStr"/>
+      <c r="K797" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L797" t="n">
         <v>1</v>
       </c>
@@ -29945,7 +29947,11 @@
       </c>
       <c r="I798" t="inlineStr"/>
       <c r="J798" t="inlineStr"/>
-      <c r="K798" t="inlineStr"/>
+      <c r="K798" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L798" t="n">
         <v>1</v>
       </c>
@@ -29974,11 +29980,15 @@
         <v>59688.90672730999</v>
       </c>
       <c r="H799" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I799" t="inlineStr"/>
       <c r="J799" t="inlineStr"/>
-      <c r="K799" t="inlineStr"/>
+      <c r="K799" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L799" t="n">
         <v>1</v>
       </c>
@@ -30007,11 +30017,15 @@
         <v>60234.90672730999</v>
       </c>
       <c r="H800" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I800" t="inlineStr"/>
       <c r="J800" t="inlineStr"/>
-      <c r="K800" t="inlineStr"/>
+      <c r="K800" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L800" t="n">
         <v>1</v>
       </c>
@@ -30040,11 +30054,15 @@
         <v>60234.90672730999</v>
       </c>
       <c r="H801" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I801" t="inlineStr"/>
       <c r="J801" t="inlineStr"/>
-      <c r="K801" t="inlineStr"/>
+      <c r="K801" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L801" t="n">
         <v>1</v>
       </c>
@@ -30077,7 +30095,11 @@
       </c>
       <c r="I802" t="inlineStr"/>
       <c r="J802" t="inlineStr"/>
-      <c r="K802" t="inlineStr"/>
+      <c r="K802" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L802" t="n">
         <v>1</v>
       </c>
@@ -30106,11 +30128,15 @@
         <v>60234.90672730999</v>
       </c>
       <c r="H803" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I803" t="inlineStr"/>
       <c r="J803" t="inlineStr"/>
-      <c r="K803" t="inlineStr"/>
+      <c r="K803" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L803" t="n">
         <v>1</v>
       </c>
@@ -30139,11 +30165,15 @@
         <v>60252.90672730999</v>
       </c>
       <c r="H804" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I804" t="inlineStr"/>
       <c r="J804" t="inlineStr"/>
-      <c r="K804" t="inlineStr"/>
+      <c r="K804" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L804" t="n">
         <v>1</v>
       </c>
@@ -30176,7 +30206,11 @@
       </c>
       <c r="I805" t="inlineStr"/>
       <c r="J805" t="inlineStr"/>
-      <c r="K805" t="inlineStr"/>
+      <c r="K805" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L805" t="n">
         <v>1</v>
       </c>
@@ -30205,11 +30239,15 @@
         <v>60252.90672730999</v>
       </c>
       <c r="H806" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I806" t="inlineStr"/>
       <c r="J806" t="inlineStr"/>
-      <c r="K806" t="inlineStr"/>
+      <c r="K806" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L806" t="n">
         <v>1</v>
       </c>
@@ -30238,11 +30276,15 @@
         <v>60252.90672730999</v>
       </c>
       <c r="H807" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I807" t="inlineStr"/>
       <c r="J807" t="inlineStr"/>
-      <c r="K807" t="inlineStr"/>
+      <c r="K807" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L807" t="n">
         <v>1</v>
       </c>
@@ -30271,11 +30313,15 @@
         <v>60252.90672730999</v>
       </c>
       <c r="H808" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I808" t="inlineStr"/>
       <c r="J808" t="inlineStr"/>
-      <c r="K808" t="inlineStr"/>
+      <c r="K808" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L808" t="n">
         <v>1</v>
       </c>
@@ -30304,11 +30350,15 @@
         <v>60252.90672730999</v>
       </c>
       <c r="H809" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I809" t="inlineStr"/>
       <c r="J809" t="inlineStr"/>
-      <c r="K809" t="inlineStr"/>
+      <c r="K809" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L809" t="n">
         <v>1</v>
       </c>
@@ -30337,14 +30387,16 @@
         <v>60252.90672730999</v>
       </c>
       <c r="H810" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I810" t="inlineStr"/>
       <c r="J810" t="inlineStr"/>
-      <c r="K810" t="inlineStr"/>
-      <c r="L810" t="n">
-        <v>1</v>
-      </c>
+      <c r="K810" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L810" t="inlineStr"/>
       <c r="M810" t="inlineStr"/>
     </row>
     <row r="811">
@@ -30370,7 +30422,7 @@
         <v>60252.90672730999</v>
       </c>
       <c r="H811" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I811" t="inlineStr"/>
       <c r="J811" t="inlineStr"/>
@@ -30403,7 +30455,7 @@
         <v>60252.90672730999</v>
       </c>
       <c r="H812" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I812" t="inlineStr"/>
       <c r="J812" t="inlineStr"/>
@@ -30436,7 +30488,7 @@
         <v>60252.90672730999</v>
       </c>
       <c r="H813" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I813" t="inlineStr"/>
       <c r="J813" t="inlineStr"/>
@@ -30469,7 +30521,7 @@
         <v>60252.90672730999</v>
       </c>
       <c r="H814" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I814" t="inlineStr"/>
       <c r="J814" t="inlineStr"/>
@@ -30502,7 +30554,7 @@
         <v>59866.40672730999</v>
       </c>
       <c r="H815" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I815" t="inlineStr"/>
       <c r="J815" t="inlineStr"/>
@@ -30535,7 +30587,7 @@
         <v>60069.60672730999</v>
       </c>
       <c r="H816" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I816" t="inlineStr"/>
       <c r="J816" t="inlineStr"/>
@@ -30568,7 +30620,7 @@
         <v>60229.03202730999</v>
       </c>
       <c r="H817" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I817" t="inlineStr"/>
       <c r="J817" t="inlineStr"/>
@@ -30601,7 +30653,7 @@
         <v>58689.55242730999</v>
       </c>
       <c r="H818" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I818" t="inlineStr"/>
       <c r="J818" t="inlineStr"/>
@@ -30634,7 +30686,7 @@
         <v>58679.55242730999</v>
       </c>
       <c r="H819" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I819" t="inlineStr"/>
       <c r="J819" t="inlineStr"/>
@@ -30667,7 +30719,7 @@
         <v>59781.65242730999</v>
       </c>
       <c r="H820" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I820" t="inlineStr"/>
       <c r="J820" t="inlineStr"/>
@@ -30700,7 +30752,7 @@
         <v>59781.65242730999</v>
       </c>
       <c r="H821" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I821" t="inlineStr"/>
       <c r="J821" t="inlineStr"/>
@@ -30733,7 +30785,7 @@
         <v>59781.65242730999</v>
       </c>
       <c r="H822" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I822" t="inlineStr"/>
       <c r="J822" t="inlineStr"/>
@@ -30766,7 +30818,7 @@
         <v>59786.75242730999</v>
       </c>
       <c r="H823" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I823" t="inlineStr"/>
       <c r="J823" t="inlineStr"/>
@@ -30799,7 +30851,7 @@
         <v>60342.94612731</v>
       </c>
       <c r="H824" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I824" t="inlineStr"/>
       <c r="J824" t="inlineStr"/>
@@ -30832,7 +30884,7 @@
         <v>60328.54612730999</v>
       </c>
       <c r="H825" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I825" t="inlineStr"/>
       <c r="J825" t="inlineStr"/>
@@ -30865,7 +30917,7 @@
         <v>61306.94612731</v>
       </c>
       <c r="H826" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I826" t="inlineStr"/>
       <c r="J826" t="inlineStr"/>
@@ -30898,7 +30950,7 @@
         <v>60938.97012730999</v>
       </c>
       <c r="H827" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I827" t="inlineStr"/>
       <c r="J827" t="inlineStr"/>
@@ -30931,7 +30983,7 @@
         <v>60943.77012731</v>
       </c>
       <c r="H828" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I828" t="inlineStr"/>
       <c r="J828" t="inlineStr"/>
@@ -30964,7 +31016,7 @@
         <v>60943.77012731</v>
       </c>
       <c r="H829" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I829" t="inlineStr"/>
       <c r="J829" t="inlineStr"/>
@@ -30997,7 +31049,7 @@
         <v>61731.37012730999</v>
       </c>
       <c r="H830" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I830" t="inlineStr"/>
       <c r="J830" t="inlineStr"/>
@@ -31030,7 +31082,7 @@
         <v>61201.57962730999</v>
       </c>
       <c r="H831" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I831" t="inlineStr"/>
       <c r="J831" t="inlineStr"/>
@@ -31063,7 +31115,7 @@
         <v>61201.57962730999</v>
       </c>
       <c r="H832" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I832" t="inlineStr"/>
       <c r="J832" t="inlineStr"/>
@@ -31096,7 +31148,7 @@
         <v>61197.37962730999</v>
       </c>
       <c r="H833" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I833" t="inlineStr"/>
       <c r="J833" t="inlineStr"/>
@@ -31129,7 +31181,7 @@
         <v>61197.37962730999</v>
       </c>
       <c r="H834" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I834" t="inlineStr"/>
       <c r="J834" t="inlineStr"/>
@@ -31162,7 +31214,7 @@
         <v>61179.67962731</v>
       </c>
       <c r="H835" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I835" t="inlineStr"/>
       <c r="J835" t="inlineStr"/>
@@ -31195,7 +31247,7 @@
         <v>61170.17962731</v>
       </c>
       <c r="H836" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I836" t="inlineStr"/>
       <c r="J836" t="inlineStr"/>
@@ -31228,7 +31280,7 @@
         <v>61170.17962731</v>
       </c>
       <c r="H837" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I837" t="inlineStr"/>
       <c r="J837" t="inlineStr"/>
@@ -31261,7 +31313,7 @@
         <v>59728.10572730999</v>
       </c>
       <c r="H838" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I838" t="inlineStr"/>
       <c r="J838" t="inlineStr"/>
@@ -31294,7 +31346,7 @@
         <v>59728.10572730999</v>
       </c>
       <c r="H839" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I839" t="inlineStr"/>
       <c r="J839" t="inlineStr"/>
@@ -31327,7 +31379,7 @@
         <v>59728.10572730999</v>
       </c>
       <c r="H840" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I840" t="inlineStr"/>
       <c r="J840" t="inlineStr"/>
@@ -31360,7 +31412,7 @@
         <v>59728.10572730999</v>
       </c>
       <c r="H841" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I841" t="inlineStr"/>
       <c r="J841" t="inlineStr"/>
@@ -31393,7 +31445,7 @@
         <v>58891.71332731</v>
       </c>
       <c r="H842" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I842" t="inlineStr"/>
       <c r="J842" t="inlineStr"/>
@@ -31426,7 +31478,7 @@
         <v>58968.12092731</v>
       </c>
       <c r="H843" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I843" t="inlineStr"/>
       <c r="J843" t="inlineStr"/>
@@ -31459,7 +31511,7 @@
         <v>58968.12092731</v>
       </c>
       <c r="H844" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I844" t="inlineStr"/>
       <c r="J844" t="inlineStr"/>
@@ -31492,7 +31544,7 @@
         <v>58968.12092731</v>
       </c>
       <c r="H845" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I845" t="inlineStr"/>
       <c r="J845" t="inlineStr"/>
@@ -31525,7 +31577,7 @@
         <v>58968.12092731</v>
       </c>
       <c r="H846" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I846" t="inlineStr"/>
       <c r="J846" t="inlineStr"/>
@@ -31558,7 +31610,7 @@
         <v>59268.12092731</v>
       </c>
       <c r="H847" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I847" t="inlineStr"/>
       <c r="J847" t="inlineStr"/>
@@ -31591,7 +31643,7 @@
         <v>59264.32092730999</v>
       </c>
       <c r="H848" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I848" t="inlineStr"/>
       <c r="J848" t="inlineStr"/>
@@ -31624,7 +31676,7 @@
         <v>59264.32092730999</v>
       </c>
       <c r="H849" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I849" t="inlineStr"/>
       <c r="J849" t="inlineStr"/>
@@ -31657,7 +31709,7 @@
         <v>59265.92092730999</v>
       </c>
       <c r="H850" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I850" t="inlineStr"/>
       <c r="J850" t="inlineStr"/>
@@ -31690,7 +31742,7 @@
         <v>59564.16392730999</v>
       </c>
       <c r="H851" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I851" t="inlineStr"/>
       <c r="J851" t="inlineStr"/>
@@ -31723,7 +31775,7 @@
         <v>59765.36392730999</v>
       </c>
       <c r="H852" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I852" t="inlineStr"/>
       <c r="J852" t="inlineStr"/>
@@ -31756,7 +31808,7 @@
         <v>59957.56392730999</v>
       </c>
       <c r="H853" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I853" t="inlineStr"/>
       <c r="J853" t="inlineStr"/>
@@ -31789,7 +31841,7 @@
         <v>59980.36392730999</v>
       </c>
       <c r="H854" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I854" t="inlineStr"/>
       <c r="J854" t="inlineStr"/>
@@ -31822,7 +31874,7 @@
         <v>59980.36392730999</v>
       </c>
       <c r="H855" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I855" t="inlineStr"/>
       <c r="J855" t="inlineStr"/>
@@ -32218,7 +32270,7 @@
         <v>60824.06392730999</v>
       </c>
       <c r="H867" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I867" t="inlineStr"/>
       <c r="J867" t="inlineStr"/>
@@ -32251,7 +32303,7 @@
         <v>60829.76392730998</v>
       </c>
       <c r="H868" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I868" t="inlineStr"/>
       <c r="J868" t="inlineStr"/>
@@ -32284,7 +32336,7 @@
         <v>60820.76392730998</v>
       </c>
       <c r="H869" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I869" t="inlineStr"/>
       <c r="J869" t="inlineStr"/>
@@ -32317,7 +32369,7 @@
         <v>60820.76392730998</v>
       </c>
       <c r="H870" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I870" t="inlineStr"/>
       <c r="J870" t="inlineStr"/>
@@ -32350,7 +32402,7 @@
         <v>61720.76392730998</v>
       </c>
       <c r="H871" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I871" t="inlineStr"/>
       <c r="J871" t="inlineStr"/>
@@ -32383,7 +32435,7 @@
         <v>61720.76392730998</v>
       </c>
       <c r="H872" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I872" t="inlineStr"/>
       <c r="J872" t="inlineStr"/>
@@ -32416,7 +32468,7 @@
         <v>61737.87097664998</v>
       </c>
       <c r="H873" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I873" t="inlineStr"/>
       <c r="J873" t="inlineStr"/>
@@ -32449,7 +32501,7 @@
         <v>61610.07097664998</v>
       </c>
       <c r="H874" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I874" t="inlineStr"/>
       <c r="J874" t="inlineStr"/>
@@ -32482,7 +32534,7 @@
         <v>61610.07097664998</v>
       </c>
       <c r="H875" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I875" t="inlineStr"/>
       <c r="J875" t="inlineStr"/>
@@ -32515,7 +32567,7 @@
         <v>61610.07097664998</v>
       </c>
       <c r="H876" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I876" t="inlineStr"/>
       <c r="J876" t="inlineStr"/>
@@ -32548,7 +32600,7 @@
         <v>61064.37097664998</v>
       </c>
       <c r="H877" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I877" t="inlineStr"/>
       <c r="J877" t="inlineStr"/>
@@ -32581,7 +32633,7 @@
         <v>61064.37097664998</v>
       </c>
       <c r="H878" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I878" t="inlineStr"/>
       <c r="J878" t="inlineStr"/>
@@ -32614,7 +32666,7 @@
         <v>61076.48005837998</v>
       </c>
       <c r="H879" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I879" t="inlineStr"/>
       <c r="J879" t="inlineStr"/>
@@ -32647,7 +32699,7 @@
         <v>61045.68005837998</v>
       </c>
       <c r="H880" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I880" t="inlineStr"/>
       <c r="J880" t="inlineStr"/>
@@ -32680,7 +32732,7 @@
         <v>61045.68005837998</v>
       </c>
       <c r="H881" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I881" t="inlineStr"/>
       <c r="J881" t="inlineStr"/>
@@ -32713,7 +32765,7 @@
         <v>61045.68005837998</v>
       </c>
       <c r="H882" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I882" t="inlineStr"/>
       <c r="J882" t="inlineStr"/>
@@ -32746,7 +32798,7 @@
         <v>61839.68005837998</v>
       </c>
       <c r="H883" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I883" t="inlineStr"/>
       <c r="J883" t="inlineStr"/>
@@ -32779,7 +32831,7 @@
         <v>61839.68005837998</v>
       </c>
       <c r="H884" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I884" t="inlineStr"/>
       <c r="J884" t="inlineStr"/>
@@ -32812,7 +32864,7 @@
         <v>61839.68005837998</v>
       </c>
       <c r="H885" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I885" t="inlineStr"/>
       <c r="J885" t="inlineStr"/>
@@ -32845,7 +32897,7 @@
         <v>62239.68005837998</v>
       </c>
       <c r="H886" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I886" t="inlineStr"/>
       <c r="J886" t="inlineStr"/>
@@ -32878,7 +32930,7 @@
         <v>62239.68005837998</v>
       </c>
       <c r="H887" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I887" t="inlineStr"/>
       <c r="J887" t="inlineStr"/>
@@ -32911,7 +32963,7 @@
         <v>62230.08005837998</v>
       </c>
       <c r="H888" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I888" t="inlineStr"/>
       <c r="J888" t="inlineStr"/>
@@ -32944,7 +32996,7 @@
         <v>62230.08005837998</v>
       </c>
       <c r="H889" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I889" t="inlineStr"/>
       <c r="J889" t="inlineStr"/>
@@ -32977,7 +33029,7 @@
         <v>62230.08005837998</v>
       </c>
       <c r="H890" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I890" t="inlineStr"/>
       <c r="J890" t="inlineStr"/>
@@ -33010,7 +33062,7 @@
         <v>62230.08005837998</v>
       </c>
       <c r="H891" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I891" t="inlineStr"/>
       <c r="J891" t="inlineStr"/>
@@ -33043,7 +33095,7 @@
         <v>62730.88005837998</v>
       </c>
       <c r="H892" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I892" t="inlineStr"/>
       <c r="J892" t="inlineStr"/>
@@ -33076,7 +33128,7 @@
         <v>62730.88005837998</v>
       </c>
       <c r="H893" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I893" t="inlineStr"/>
       <c r="J893" t="inlineStr"/>
@@ -33109,7 +33161,7 @@
         <v>62939.07300903998</v>
       </c>
       <c r="H894" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I894" t="inlineStr"/>
       <c r="J894" t="inlineStr"/>
@@ -33142,7 +33194,7 @@
         <v>62939.07300903998</v>
       </c>
       <c r="H895" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I895" t="inlineStr"/>
       <c r="J895" t="inlineStr"/>
@@ -33175,7 +33227,7 @@
         <v>62939.07300903998</v>
       </c>
       <c r="H896" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I896" t="inlineStr"/>
       <c r="J896" t="inlineStr"/>
@@ -33208,7 +33260,7 @@
         <v>62939.07300903998</v>
       </c>
       <c r="H897" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I897" t="inlineStr"/>
       <c r="J897" t="inlineStr"/>
@@ -33241,7 +33293,7 @@
         <v>62939.07300903998</v>
       </c>
       <c r="H898" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I898" t="inlineStr"/>
       <c r="J898" t="inlineStr"/>
@@ -33274,7 +33326,7 @@
         <v>62969.27300903998</v>
       </c>
       <c r="H899" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I899" t="inlineStr"/>
       <c r="J899" t="inlineStr"/>
@@ -33307,7 +33359,7 @@
         <v>62969.27300903998</v>
       </c>
       <c r="H900" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I900" t="inlineStr"/>
       <c r="J900" t="inlineStr"/>
@@ -33340,7 +33392,7 @@
         <v>62969.27300903998</v>
       </c>
       <c r="H901" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I901" t="inlineStr"/>
       <c r="J901" t="inlineStr"/>
@@ -33373,7 +33425,7 @@
         <v>63678.16150903998</v>
       </c>
       <c r="H902" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I902" t="inlineStr"/>
       <c r="J902" t="inlineStr"/>
@@ -33406,7 +33458,7 @@
         <v>63663.66150903998</v>
       </c>
       <c r="H903" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I903" t="inlineStr"/>
       <c r="J903" t="inlineStr"/>
@@ -33439,7 +33491,7 @@
         <v>63891.87300903998</v>
       </c>
       <c r="H904" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I904" t="inlineStr"/>
       <c r="J904" t="inlineStr"/>
@@ -33472,7 +33524,7 @@
         <v>63891.87300903998</v>
       </c>
       <c r="H905" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I905" t="inlineStr"/>
       <c r="J905" t="inlineStr"/>
@@ -33505,7 +33557,7 @@
         <v>63891.87300903998</v>
       </c>
       <c r="H906" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I906" t="inlineStr"/>
       <c r="J906" t="inlineStr"/>
@@ -33538,7 +33590,7 @@
         <v>63881.31230903997</v>
       </c>
       <c r="H907" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I907" t="inlineStr"/>
       <c r="J907" t="inlineStr"/>
@@ -33571,7 +33623,7 @@
         <v>63160.81420903998</v>
       </c>
       <c r="H908" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I908" t="inlineStr"/>
       <c r="J908" t="inlineStr"/>
@@ -33604,7 +33656,7 @@
         <v>63160.81420903998</v>
       </c>
       <c r="H909" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I909" t="inlineStr"/>
       <c r="J909" t="inlineStr"/>
@@ -33637,7 +33689,7 @@
         <v>63550.37300903998</v>
       </c>
       <c r="H910" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I910" t="inlineStr"/>
       <c r="J910" t="inlineStr"/>
@@ -33670,7 +33722,7 @@
         <v>62985.48300903998</v>
       </c>
       <c r="H911" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I911" t="inlineStr"/>
       <c r="J911" t="inlineStr"/>
@@ -33703,7 +33755,7 @@
         <v>62985.48300903998</v>
       </c>
       <c r="H912" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I912" t="inlineStr"/>
       <c r="J912" t="inlineStr"/>
@@ -33736,7 +33788,7 @@
         <v>62974.18300903997</v>
       </c>
       <c r="H913" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I913" t="inlineStr"/>
       <c r="J913" t="inlineStr"/>
@@ -33769,7 +33821,7 @@
         <v>63286.68300903997</v>
       </c>
       <c r="H914" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I914" t="inlineStr"/>
       <c r="J914" t="inlineStr"/>
@@ -33802,7 +33854,7 @@
         <v>63271.38300903997</v>
       </c>
       <c r="H915" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I915" t="inlineStr"/>
       <c r="J915" t="inlineStr"/>
@@ -33835,7 +33887,7 @@
         <v>63271.38300903997</v>
       </c>
       <c r="H916" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I916" t="inlineStr"/>
       <c r="J916" t="inlineStr"/>
@@ -33868,7 +33920,7 @@
         <v>63271.38300903997</v>
       </c>
       <c r="H917" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I917" t="inlineStr"/>
       <c r="J917" t="inlineStr"/>
@@ -33901,7 +33953,7 @@
         <v>63271.38300903997</v>
       </c>
       <c r="H918" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I918" t="inlineStr"/>
       <c r="J918" t="inlineStr"/>
@@ -33934,7 +33986,7 @@
         <v>63271.38300903997</v>
       </c>
       <c r="H919" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I919" t="inlineStr"/>
       <c r="J919" t="inlineStr"/>
@@ -33967,7 +34019,7 @@
         <v>63271.38300903997</v>
       </c>
       <c r="H920" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I920" t="inlineStr"/>
       <c r="J920" t="inlineStr"/>
@@ -34000,7 +34052,7 @@
         <v>63271.38300903997</v>
       </c>
       <c r="H921" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I921" t="inlineStr"/>
       <c r="J921" t="inlineStr"/>
@@ -34033,7 +34085,7 @@
         <v>63244.10550903998</v>
       </c>
       <c r="H922" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I922" t="inlineStr"/>
       <c r="J922" t="inlineStr"/>
@@ -34066,7 +34118,7 @@
         <v>63244.10550903998</v>
       </c>
       <c r="H923" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I923" t="inlineStr"/>
       <c r="J923" t="inlineStr"/>
@@ -34099,7 +34151,7 @@
         <v>63246.10550903998</v>
       </c>
       <c r="H924" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I924" t="inlineStr"/>
       <c r="J924" t="inlineStr"/>
@@ -34132,7 +34184,7 @@
         <v>63230.70550903997</v>
       </c>
       <c r="H925" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I925" t="inlineStr"/>
       <c r="J925" t="inlineStr"/>
@@ -34165,7 +34217,7 @@
         <v>62648.10370903998</v>
       </c>
       <c r="H926" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I926" t="inlineStr"/>
       <c r="J926" t="inlineStr"/>
@@ -34198,7 +34250,7 @@
         <v>62653.10370903998</v>
       </c>
       <c r="H927" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I927" t="inlineStr"/>
       <c r="J927" t="inlineStr"/>
@@ -34231,7 +34283,7 @@
         <v>62932.90370903998</v>
       </c>
       <c r="H928" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I928" t="inlineStr"/>
       <c r="J928" t="inlineStr"/>
@@ -34264,7 +34316,7 @@
         <v>62932.90370903998</v>
       </c>
       <c r="H929" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I929" t="inlineStr"/>
       <c r="J929" t="inlineStr"/>
@@ -34297,7 +34349,7 @@
         <v>62932.90370903998</v>
       </c>
       <c r="H930" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I930" t="inlineStr"/>
       <c r="J930" t="inlineStr"/>
@@ -34330,7 +34382,7 @@
         <v>64172.70370903998</v>
       </c>
       <c r="H931" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I931" t="inlineStr"/>
       <c r="J931" t="inlineStr"/>
@@ -34396,7 +34448,7 @@
         <v>64172.70370903998</v>
       </c>
       <c r="H933" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I933" t="inlineStr"/>
       <c r="J933" t="inlineStr"/>
@@ -34693,7 +34745,7 @@
         <v>64526.60370903998</v>
       </c>
       <c r="H942" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I942" t="inlineStr"/>
       <c r="J942" t="inlineStr"/>
@@ -34726,7 +34778,7 @@
         <v>65271.90370903999</v>
       </c>
       <c r="H943" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I943" t="inlineStr"/>
       <c r="J943" t="inlineStr"/>
@@ -34759,7 +34811,7 @@
         <v>65271.90370903999</v>
       </c>
       <c r="H944" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I944" t="inlineStr"/>
       <c r="J944" t="inlineStr"/>
@@ -34792,7 +34844,7 @@
         <v>65271.90370903999</v>
       </c>
       <c r="H945" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I945" t="inlineStr"/>
       <c r="J945" t="inlineStr"/>
@@ -34825,7 +34877,7 @@
         <v>65271.90370903999</v>
       </c>
       <c r="H946" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I946" t="inlineStr"/>
       <c r="J946" t="inlineStr"/>
@@ -34858,7 +34910,7 @@
         <v>65271.90370903999</v>
       </c>
       <c r="H947" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I947" t="inlineStr"/>
       <c r="J947" t="inlineStr"/>
@@ -34891,7 +34943,7 @@
         <v>65271.90370903999</v>
       </c>
       <c r="H948" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I948" t="inlineStr"/>
       <c r="J948" t="inlineStr"/>
@@ -34924,7 +34976,7 @@
         <v>65271.90370903999</v>
       </c>
       <c r="H949" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I949" t="inlineStr"/>
       <c r="J949" t="inlineStr"/>
@@ -34957,7 +35009,7 @@
         <v>65591.90370903999</v>
       </c>
       <c r="H950" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I950" t="inlineStr"/>
       <c r="J950" t="inlineStr"/>
@@ -34990,7 +35042,7 @@
         <v>65587.90370903999</v>
       </c>
       <c r="H951" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I951" t="inlineStr"/>
       <c r="J951" t="inlineStr"/>
@@ -35023,7 +35075,7 @@
         <v>65606.10370903999</v>
       </c>
       <c r="H952" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I952" t="inlineStr"/>
       <c r="J952" t="inlineStr"/>
@@ -35056,7 +35108,7 @@
         <v>65932.60370903999</v>
       </c>
       <c r="H953" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I953" t="inlineStr"/>
       <c r="J953" t="inlineStr"/>
@@ -35089,7 +35141,7 @@
         <v>65923.80370903999</v>
       </c>
       <c r="H954" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I954" t="inlineStr"/>
       <c r="J954" t="inlineStr"/>
@@ -35122,7 +35174,7 @@
         <v>68400.16980903999</v>
       </c>
       <c r="H955" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I955" t="inlineStr"/>
       <c r="J955" t="inlineStr"/>
@@ -35155,7 +35207,7 @@
         <v>68151.86470903999</v>
       </c>
       <c r="H956" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I956" t="inlineStr"/>
       <c r="J956" t="inlineStr"/>
@@ -35188,7 +35240,7 @@
         <v>68151.86470903999</v>
       </c>
       <c r="H957" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I957" t="inlineStr"/>
       <c r="J957" t="inlineStr"/>
@@ -35221,7 +35273,7 @@
         <v>68151.86470903999</v>
       </c>
       <c r="H958" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I958" t="inlineStr"/>
       <c r="J958" t="inlineStr"/>
@@ -35254,7 +35306,7 @@
         <v>68151.86470903999</v>
       </c>
       <c r="H959" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I959" t="inlineStr"/>
       <c r="J959" t="inlineStr"/>
@@ -35287,7 +35339,7 @@
         <v>68151.86470903999</v>
       </c>
       <c r="H960" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I960" t="inlineStr"/>
       <c r="J960" t="inlineStr"/>
@@ -35320,7 +35372,7 @@
         <v>68960.35960904</v>
       </c>
       <c r="H961" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I961" t="inlineStr"/>
       <c r="J961" t="inlineStr"/>
@@ -35353,7 +35405,7 @@
         <v>68980.85960904</v>
       </c>
       <c r="H962" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I962" t="inlineStr"/>
       <c r="J962" t="inlineStr"/>
@@ -35386,7 +35438,7 @@
         <v>68176.35940904</v>
       </c>
       <c r="H963" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I963" t="inlineStr"/>
       <c r="J963" t="inlineStr"/>
@@ -35419,7 +35471,7 @@
         <v>68176.35940904</v>
       </c>
       <c r="H964" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I964" t="inlineStr"/>
       <c r="J964" t="inlineStr"/>
@@ -35452,7 +35504,7 @@
         <v>68176.35940904</v>
       </c>
       <c r="H965" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I965" t="inlineStr"/>
       <c r="J965" t="inlineStr"/>
@@ -35485,7 +35537,7 @@
         <v>68176.35940904</v>
       </c>
       <c r="H966" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I966" t="inlineStr"/>
       <c r="J966" t="inlineStr"/>
@@ -35518,7 +35570,7 @@
         <v>68176.35940904</v>
       </c>
       <c r="H967" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I967" t="inlineStr"/>
       <c r="J967" t="inlineStr"/>
@@ -35551,7 +35603,7 @@
         <v>68147.85940904</v>
       </c>
       <c r="H968" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I968" t="inlineStr"/>
       <c r="J968" t="inlineStr"/>
@@ -35584,7 +35636,7 @@
         <v>68147.85940904</v>
       </c>
       <c r="H969" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I969" t="inlineStr"/>
       <c r="J969" t="inlineStr"/>
@@ -35617,7 +35669,7 @@
         <v>68147.85940904</v>
       </c>
       <c r="H970" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I970" t="inlineStr"/>
       <c r="J970" t="inlineStr"/>
@@ -35650,7 +35702,7 @@
         <v>69047.85940904</v>
       </c>
       <c r="H971" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I971" t="inlineStr"/>
       <c r="J971" t="inlineStr"/>
@@ -35683,7 +35735,7 @@
         <v>69032.75940903999</v>
       </c>
       <c r="H972" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I972" t="inlineStr"/>
       <c r="J972" t="inlineStr"/>
@@ -35716,7 +35768,7 @@
         <v>69032.75940903999</v>
       </c>
       <c r="H973" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I973" t="inlineStr"/>
       <c r="J973" t="inlineStr"/>
@@ -35749,7 +35801,7 @@
         <v>69032.75940903999</v>
       </c>
       <c r="H974" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I974" t="inlineStr"/>
       <c r="J974" t="inlineStr"/>
@@ -35782,7 +35834,7 @@
         <v>69032.75940903999</v>
       </c>
       <c r="H975" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I975" t="inlineStr"/>
       <c r="J975" t="inlineStr"/>
@@ -35815,7 +35867,7 @@
         <v>69432.75940903999</v>
       </c>
       <c r="H976" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I976" t="inlineStr"/>
       <c r="J976" t="inlineStr"/>
@@ -35848,7 +35900,7 @@
         <v>69420.35940904</v>
       </c>
       <c r="H977" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I977" t="inlineStr"/>
       <c r="J977" t="inlineStr"/>
@@ -35881,7 +35933,7 @@
         <v>69720.35940904</v>
       </c>
       <c r="H978" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I978" t="inlineStr"/>
       <c r="J978" t="inlineStr"/>
@@ -35914,7 +35966,7 @@
         <v>69610.35940904</v>
       </c>
       <c r="H979" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I979" t="inlineStr"/>
       <c r="J979" t="inlineStr"/>
@@ -35947,7 +35999,7 @@
         <v>69610.35940904</v>
       </c>
       <c r="H980" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I980" t="inlineStr"/>
       <c r="J980" t="inlineStr"/>
@@ -35980,7 +36032,7 @@
         <v>69610.35940904</v>
       </c>
       <c r="H981" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I981" t="inlineStr"/>
       <c r="J981" t="inlineStr"/>
@@ -36013,7 +36065,7 @@
         <v>69607.95940904001</v>
       </c>
       <c r="H982" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I982" t="inlineStr"/>
       <c r="J982" t="inlineStr"/>
@@ -36046,7 +36098,7 @@
         <v>69607.95940904001</v>
       </c>
       <c r="H983" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I983" t="inlineStr"/>
       <c r="J983" t="inlineStr"/>
@@ -36079,7 +36131,7 @@
         <v>69607.95940904001</v>
       </c>
       <c r="H984" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I984" t="inlineStr"/>
       <c r="J984" t="inlineStr"/>
@@ -36112,7 +36164,7 @@
         <v>61239.30880904001</v>
       </c>
       <c r="H985" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I985" t="inlineStr"/>
       <c r="J985" t="inlineStr"/>
@@ -36145,7 +36197,7 @@
         <v>61239.30880904001</v>
       </c>
       <c r="H986" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I986" t="inlineStr"/>
       <c r="J986" t="inlineStr"/>
@@ -36178,7 +36230,7 @@
         <v>61239.30880904001</v>
       </c>
       <c r="H987" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I987" t="inlineStr"/>
       <c r="J987" t="inlineStr"/>
@@ -36211,7 +36263,7 @@
         <v>61239.30880904001</v>
       </c>
       <c r="H988" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I988" t="inlineStr"/>
       <c r="J988" t="inlineStr"/>
@@ -36244,7 +36296,7 @@
         <v>61223.40880904</v>
       </c>
       <c r="H989" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I989" t="inlineStr"/>
       <c r="J989" t="inlineStr"/>
@@ -36277,7 +36329,7 @@
         <v>63223.40880904</v>
       </c>
       <c r="H990" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I990" t="inlineStr"/>
       <c r="J990" t="inlineStr"/>
@@ -36310,7 +36362,7 @@
         <v>62472.60880904</v>
       </c>
       <c r="H991" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I991" t="inlineStr"/>
       <c r="J991" t="inlineStr"/>
@@ -36508,7 +36560,7 @@
         <v>62687.30880904001</v>
       </c>
       <c r="H997" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I997" t="inlineStr"/>
       <c r="J997" t="inlineStr"/>
@@ -36541,7 +36593,7 @@
         <v>62687.30880904001</v>
       </c>
       <c r="H998" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I998" t="inlineStr"/>
       <c r="J998" t="inlineStr"/>
@@ -36574,7 +36626,7 @@
         <v>62687.30880904001</v>
       </c>
       <c r="H999" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I999" t="inlineStr"/>
       <c r="J999" t="inlineStr"/>
@@ -36607,7 +36659,7 @@
         <v>62696.20880904001</v>
       </c>
       <c r="H1000" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1000" t="inlineStr"/>
       <c r="J1000" t="inlineStr"/>
@@ -36673,7 +36725,7 @@
         <v>62713.80880904001</v>
       </c>
       <c r="H1002" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1002" t="inlineStr"/>
       <c r="J1002" t="inlineStr"/>
@@ -36739,7 +36791,7 @@
         <v>62713.80880904001</v>
       </c>
       <c r="H1004" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1004" t="inlineStr"/>
       <c r="J1004" t="inlineStr"/>
@@ -36772,7 +36824,7 @@
         <v>62612.10880904001</v>
       </c>
       <c r="H1005" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1005" t="inlineStr"/>
       <c r="J1005" t="inlineStr"/>
@@ -36805,7 +36857,7 @@
         <v>62167.40880904001</v>
       </c>
       <c r="H1006" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1006" t="inlineStr"/>
       <c r="J1006" t="inlineStr"/>
@@ -36838,7 +36890,7 @@
         <v>62167.40880904001</v>
       </c>
       <c r="H1007" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1007" t="inlineStr"/>
       <c r="J1007" t="inlineStr"/>
@@ -36871,7 +36923,7 @@
         <v>60002.20880904001</v>
       </c>
       <c r="H1008" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1008" t="inlineStr"/>
       <c r="J1008" t="inlineStr"/>
@@ -36904,7 +36956,7 @@
         <v>60502.50880904002</v>
       </c>
       <c r="H1009" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1009" t="inlineStr"/>
       <c r="J1009" t="inlineStr"/>
@@ -37036,7 +37088,7 @@
         <v>60307.50540904002</v>
       </c>
       <c r="H1013" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1013" t="inlineStr"/>
       <c r="J1013" t="inlineStr"/>
@@ -37465,7 +37517,7 @@
         <v>60085.15940904001</v>
       </c>
       <c r="H1026" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1026" t="inlineStr"/>
       <c r="J1026" t="inlineStr"/>
@@ -37498,7 +37550,7 @@
         <v>60085.15940904001</v>
       </c>
       <c r="H1027" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1027" t="inlineStr"/>
       <c r="J1027" t="inlineStr"/>
@@ -37531,7 +37583,7 @@
         <v>58805.15940904001</v>
       </c>
       <c r="H1028" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1028" t="inlineStr"/>
       <c r="J1028" t="inlineStr"/>
@@ -37564,7 +37616,7 @@
         <v>58805.15940904001</v>
       </c>
       <c r="H1029" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1029" t="inlineStr"/>
       <c r="J1029" t="inlineStr"/>
@@ -37597,7 +37649,7 @@
         <v>59167.45940904001</v>
       </c>
       <c r="H1030" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1030" t="inlineStr"/>
       <c r="J1030" t="inlineStr"/>
@@ -37630,7 +37682,7 @@
         <v>59161.35940904001</v>
       </c>
       <c r="H1031" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1031" t="inlineStr"/>
       <c r="J1031" t="inlineStr"/>
@@ -37663,7 +37715,7 @@
         <v>59161.35940904001</v>
       </c>
       <c r="H1032" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1032" t="inlineStr"/>
       <c r="J1032" t="inlineStr"/>
@@ -37828,7 +37880,7 @@
         <v>57600.35940904001</v>
       </c>
       <c r="H1037" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1037" t="inlineStr"/>
       <c r="J1037" t="inlineStr"/>
@@ -37894,7 +37946,7 @@
         <v>58412.35940904001</v>
       </c>
       <c r="H1039" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1039" t="inlineStr"/>
       <c r="J1039" t="inlineStr"/>
@@ -37927,7 +37979,7 @@
         <v>59559.05810904002</v>
       </c>
       <c r="H1040" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1040" t="inlineStr"/>
       <c r="J1040" t="inlineStr"/>
@@ -37960,7 +38012,7 @@
         <v>59104.51980904002</v>
       </c>
       <c r="H1041" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1041" t="inlineStr"/>
       <c r="J1041" t="inlineStr"/>
@@ -37993,7 +38045,7 @@
         <v>58788.11980904001</v>
       </c>
       <c r="H1042" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1042" t="inlineStr"/>
       <c r="J1042" t="inlineStr"/>
@@ -38026,7 +38078,7 @@
         <v>58797.71980904001</v>
       </c>
       <c r="H1043" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1043" t="inlineStr"/>
       <c r="J1043" t="inlineStr"/>
@@ -38059,7 +38111,7 @@
         <v>58797.71980904001</v>
       </c>
       <c r="H1044" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1044" t="inlineStr"/>
       <c r="J1044" t="inlineStr"/>
@@ -38092,7 +38144,7 @@
         <v>58797.71980904001</v>
       </c>
       <c r="H1045" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1045" t="inlineStr"/>
       <c r="J1045" t="inlineStr"/>
@@ -38125,7 +38177,7 @@
         <v>59589.88150904001</v>
       </c>
       <c r="H1046" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1046" t="inlineStr"/>
       <c r="J1046" t="inlineStr"/>
@@ -38158,7 +38210,7 @@
         <v>60124.98150904001</v>
       </c>
       <c r="H1047" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1047" t="inlineStr"/>
       <c r="J1047" t="inlineStr"/>
@@ -38191,7 +38243,7 @@
         <v>60124.98150904001</v>
       </c>
       <c r="H1048" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1048" t="inlineStr"/>
       <c r="J1048" t="inlineStr"/>
@@ -38224,7 +38276,7 @@
         <v>66678.44946316001</v>
       </c>
       <c r="H1049" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1049" t="inlineStr"/>
       <c r="J1049" t="inlineStr"/>
@@ -38257,7 +38309,7 @@
         <v>65748.02256316</v>
       </c>
       <c r="H1050" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1050" t="inlineStr"/>
       <c r="J1050" t="inlineStr"/>
@@ -38290,7 +38342,7 @@
         <v>65729.02256316</v>
       </c>
       <c r="H1051" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1051" t="inlineStr"/>
       <c r="J1051" t="inlineStr"/>
@@ -38301,6 +38353,6 @@
       <c r="M1051" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>